--- a/test.xlsx
+++ b/test.xlsx
@@ -14,9 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>第一次生成文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改了一次提交到本地库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -366,9 +370,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -377,6 +383,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -20,7 +20,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>更改了一次提交到本地库</t>
+    <t>zaici一次提交到本地库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,13 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>第一次生成文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zaici一次提交到本地库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在本地库有三行 而我的本地库和工作空间有两行。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -388,6 +392,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,17 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>第一次生成文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zaici一次提交到本地库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在本地库有三行 而我的本地库和工作空间有两行。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -392,11 +388,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>第一次生成文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zaici一次提交到本地库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊啊啊啊啊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -84,7 +88,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -126,7 +130,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -161,7 +165,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,22 +374,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -370,13 +370,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -388,6 +391,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>6.6666666666666597E+20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>第一次生成文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,11 +27,15 @@
     <t>qweqwe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>update by yangguang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,7 +92,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -374,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -405,6 +409,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -374,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -405,6 +405,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>234234</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -374,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -410,6 +410,11 @@
         <v>234234</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>568</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>第一次生成文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,6 +29,10 @@
   </si>
   <si>
     <t>update by yangguang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update by yangguang2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -414,6 +418,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
